--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,21 +58,21 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -82,196 +82,238 @@
     <t>thank</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>well</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>care</t>
+    <t>community</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>community</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>staff</t>
+    <t>service</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>retail</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>hands</t>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>local</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>delivery</t>
   </si>
   <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>via</t>
+    <t>shop</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>one</t>
   </si>
   <si>
     <t>toilet</t>
   </si>
   <si>
-    <t>stay</t>
+    <t>us</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
-    <t>us</t>
-  </si>
-  <si>
     <t>prices</t>
+  </si>
+  <si>
+    <t>people</t>
   </si>
   <si>
     <t>food</t>
@@ -632,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +743,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5862068965517241</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,31 +761,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4554794520547945</v>
+        <v>0.4691780821917808</v>
       </c>
       <c r="C4">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D4">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,31 +811,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,13 +867,13 @@
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2266666666666667</v>
+        <v>0.24</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,31 +911,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="N6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,37 +943,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.112621359223301</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="C7">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,25 +993,25 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8363636363636363</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +1019,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,25 +1045,25 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8267716535433071</v>
+        <v>0.84375</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,25 +1071,25 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="N11">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1097,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1081,13 +1123,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1099,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1107,25 +1149,25 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7579617834394905</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L14">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1133,25 +1175,25 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7192982456140351</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1159,13 +1201,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7021276595744681</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1177,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1185,25 +1227,25 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L17">
+        <v>40</v>
+      </c>
+      <c r="M17">
+        <v>40</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>18</v>
-      </c>
-      <c r="M17">
-        <v>20</v>
-      </c>
-      <c r="N17">
-        <v>0.9</v>
-      </c>
-      <c r="O17">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1211,25 +1253,25 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6782608695652174</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L18">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1237,25 +1279,25 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6764705882352942</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="N19">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1263,25 +1305,25 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6633663366336634</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L20">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M20">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1292,22 +1334,22 @@
         <v>0.6595744680851063</v>
       </c>
       <c r="L21">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1315,25 +1357,25 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6111111111111112</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L22">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M22">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N22">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1341,25 +1383,25 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6086956521739131</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="N23">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1367,13 +1409,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5714285714285714</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1385,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1393,25 +1435,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5349544072948328</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L25">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>153</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1419,25 +1461,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.53125</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1445,25 +1487,25 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.52</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N27">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1471,25 +1513,25 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5147058823529411</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1497,13 +1539,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5098039215686274</v>
+        <v>0.5470588235294118</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1515,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1523,13 +1565,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4814814814814815</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1541,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1549,25 +1591,25 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4689655172413793</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L31">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="N31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>154</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1575,13 +1617,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4285714285714285</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1593,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1601,25 +1643,25 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4240837696335079</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L33">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>220</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1627,25 +1669,25 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.4090909090909091</v>
+        <v>0.4372881355932203</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>52</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1653,13 +1695,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.390625</v>
+        <v>0.4255874673629243</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1671,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1679,13 +1721,13 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.34</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1697,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1705,13 +1747,13 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.3023255813953488</v>
+        <v>0.425</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1723,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1731,13 +1773,13 @@
         <v>49</v>
       </c>
       <c r="K38">
-        <v>0.2978723404255319</v>
+        <v>0.42</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1749,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1757,25 +1799,25 @@
         <v>50</v>
       </c>
       <c r="K39">
-        <v>0.2383177570093458</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L39">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="N39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>163</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1783,25 +1825,25 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>0.2313253012048193</v>
+        <v>0.359375</v>
       </c>
       <c r="L40">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>319</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1809,25 +1851,25 @@
         <v>52</v>
       </c>
       <c r="K41">
-        <v>0.21875</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L41">
         <v>21</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1835,25 +1877,25 @@
         <v>53</v>
       </c>
       <c r="K42">
-        <v>0.2151898734177215</v>
+        <v>0.2989690721649484</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>124</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1861,25 +1903,25 @@
         <v>54</v>
       </c>
       <c r="K43">
-        <v>0.1971830985915493</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N43">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1887,25 +1929,25 @@
         <v>55</v>
       </c>
       <c r="K44">
-        <v>0.1772151898734177</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1913,13 +1955,13 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.1538461538461539</v>
+        <v>0.25</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1931,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1939,25 +1981,25 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.1493975903614458</v>
+        <v>0.2418604651162791</v>
       </c>
       <c r="L46">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M46">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>353</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1965,13 +2007,13 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.147239263803681</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1983,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>139</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1991,25 +2033,25 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.1470588235294118</v>
+        <v>0.2180451127819549</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2017,25 +2059,25 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.143939393939394</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="N49">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>113</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2043,13 +2085,13 @@
         <v>61</v>
       </c>
       <c r="K50">
-        <v>0.1386138613861386</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2061,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2069,7 +2111,7 @@
         <v>62</v>
       </c>
       <c r="K51">
-        <v>0.1304347826086956</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="L51">
         <v>15</v>
@@ -2087,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2095,13 +2137,13 @@
         <v>63</v>
       </c>
       <c r="K52">
-        <v>0.1258741258741259</v>
+        <v>0.1949685534591195</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2113,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2121,25 +2163,25 @@
         <v>64</v>
       </c>
       <c r="K53">
-        <v>0.1168224299065421</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="L53">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>189</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2147,13 +2189,13 @@
         <v>65</v>
       </c>
       <c r="K54">
-        <v>0.1150442477876106</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2165,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2173,13 +2215,13 @@
         <v>66</v>
       </c>
       <c r="K55">
-        <v>0.1145038167938931</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2191,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2199,25 +2241,25 @@
         <v>67</v>
       </c>
       <c r="K56">
-        <v>0.10662177328844</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L56">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="N56">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>796</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2225,25 +2267,25 @@
         <v>68</v>
       </c>
       <c r="K57">
-        <v>0.100111234705228</v>
+        <v>0.1716417910447761</v>
       </c>
       <c r="L57">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="N57">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>809</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2251,25 +2293,25 @@
         <v>69</v>
       </c>
       <c r="K58">
-        <v>0.09826589595375723</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="L58">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N58">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>312</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2277,25 +2319,25 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>0.09774436090225563</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L59">
         <v>13</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>120</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2303,25 +2345,25 @@
         <v>71</v>
       </c>
       <c r="K60">
-        <v>0.09572970436414829</v>
+        <v>0.1656441717791411</v>
       </c>
       <c r="L60">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="N60">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1927</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2329,25 +2371,25 @@
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0.09357857373346241</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="L61">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="N61">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>2809</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2355,25 +2397,25 @@
         <v>73</v>
       </c>
       <c r="K62">
-        <v>0.09322033898305085</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N62">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>214</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2381,13 +2423,13 @@
         <v>74</v>
       </c>
       <c r="K63">
-        <v>0.09259259259259259</v>
+        <v>0.1466346153846154</v>
       </c>
       <c r="L63">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M63">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2399,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>441</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2407,25 +2449,25 @@
         <v>75</v>
       </c>
       <c r="K64">
-        <v>0.09259259259259259</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="L64">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N64">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>294</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2433,25 +2475,25 @@
         <v>76</v>
       </c>
       <c r="K65">
-        <v>0.08904109589041095</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N65">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2459,25 +2501,25 @@
         <v>77</v>
       </c>
       <c r="K66">
-        <v>0.08695652173913043</v>
+        <v>0.125</v>
       </c>
       <c r="L66">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N66">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>168</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2485,13 +2527,13 @@
         <v>78</v>
       </c>
       <c r="K67">
-        <v>0.08260869565217391</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2503,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2511,25 +2553,25 @@
         <v>79</v>
       </c>
       <c r="K68">
-        <v>0.07184241019698726</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="L68">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="N68">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>801</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2537,25 +2579,25 @@
         <v>80</v>
       </c>
       <c r="K69">
-        <v>0.07142857142857142</v>
+        <v>0.1146131805157593</v>
       </c>
       <c r="L69">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M69">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N69">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>598</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2563,25 +2605,25 @@
         <v>81</v>
       </c>
       <c r="K70">
-        <v>0.05309734513274336</v>
+        <v>0.109704641350211</v>
       </c>
       <c r="L70">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M70">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N70">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>535</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2589,13 +2631,13 @@
         <v>82</v>
       </c>
       <c r="K71">
-        <v>0.05194805194805195</v>
+        <v>0.1096196868008949</v>
       </c>
       <c r="L71">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="M71">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2607,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>292</v>
+        <v>796</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2615,25 +2657,25 @@
         <v>83</v>
       </c>
       <c r="K72">
-        <v>0.04888749608273268</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="L72">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="M72">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="N72">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>3035</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2641,13 +2683,13 @@
         <v>84</v>
       </c>
       <c r="K73">
-        <v>0.04868913857677903</v>
+        <v>0.1026598226784881</v>
       </c>
       <c r="L73">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="M73">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2659,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>254</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2667,25 +2709,25 @@
         <v>85</v>
       </c>
       <c r="K74">
-        <v>0.04400345125107852</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="L74">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="M74">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N74">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1108</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2693,25 +2735,389 @@
         <v>86</v>
       </c>
       <c r="K75">
-        <v>0.01663201663201663</v>
+        <v>0.09988901220865705</v>
       </c>
       <c r="L75">
+        <v>90</v>
+      </c>
+      <c r="M75">
+        <v>90</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K76">
+        <v>0.09913099452848406</v>
+      </c>
+      <c r="L76">
+        <v>308</v>
+      </c>
+      <c r="M76">
+        <v>308</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K77">
+        <v>0.0948905109489051</v>
+      </c>
+      <c r="L77">
+        <v>13</v>
+      </c>
+      <c r="M77">
+        <v>13</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K78">
+        <v>0.08648648648648649</v>
+      </c>
+      <c r="L78">
         <v>16</v>
       </c>
-      <c r="M75">
-        <v>22</v>
-      </c>
-      <c r="N75">
-        <v>0.73</v>
-      </c>
-      <c r="O75">
-        <v>0.27</v>
-      </c>
-      <c r="P75" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q75">
-        <v>946</v>
+      <c r="M78">
+        <v>16</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K79">
+        <v>0.08641975308641975</v>
+      </c>
+      <c r="L79">
+        <v>42</v>
+      </c>
+      <c r="M79">
+        <v>42</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K80">
+        <v>0.08307692307692308</v>
+      </c>
+      <c r="L80">
+        <v>54</v>
+      </c>
+      <c r="M80">
+        <v>54</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K81">
+        <v>0.08116883116883117</v>
+      </c>
+      <c r="L81">
+        <v>25</v>
+      </c>
+      <c r="M81">
+        <v>25</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K82">
+        <v>0.07612456747404844</v>
+      </c>
+      <c r="L82">
+        <v>66</v>
+      </c>
+      <c r="M82">
+        <v>66</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K83">
+        <v>0.05777777777777778</v>
+      </c>
+      <c r="L83">
+        <v>13</v>
+      </c>
+      <c r="M83">
+        <v>13</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K84">
+        <v>0.0564373897707231</v>
+      </c>
+      <c r="L84">
+        <v>32</v>
+      </c>
+      <c r="M84">
+        <v>32</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K85">
+        <v>0.05617977528089887</v>
+      </c>
+      <c r="L85">
+        <v>15</v>
+      </c>
+      <c r="M85">
+        <v>15</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K86">
+        <v>0.05154639175257732</v>
+      </c>
+      <c r="L86">
+        <v>165</v>
+      </c>
+      <c r="M86">
+        <v>165</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K87">
+        <v>0.04909560723514212</v>
+      </c>
+      <c r="L87">
+        <v>57</v>
+      </c>
+      <c r="M87">
+        <v>57</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K88">
+        <v>0.03119266055045872</v>
+      </c>
+      <c r="L88">
+        <v>17</v>
+      </c>
+      <c r="M88">
+        <v>17</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K89">
+        <v>0.02892561983471074</v>
+      </c>
+      <c r="L89">
+        <v>28</v>
+      </c>
+      <c r="M89">
+        <v>28</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>940</v>
       </c>
     </row>
   </sheetData>
